--- a/ct-district-wealth-education-2009-13.xlsx
+++ b/ct-district-wealth-education-2009-13.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdougherty/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdougherty/Documents/GitHub/otl-scatterchart/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19880" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="11800" yWindow="1220" windowWidth="19880" windowHeight="18540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
     <sheet name="CT-town-income-ACS0913" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="700">
   <si>
     <t>median family income</t>
   </si>
@@ -490,67 +490,12 @@
     <t>From Stanford's Education Data Archive which includes standardized math and reading test score data between 2009 and 2012 from the National Assessment of Educational Progress, as well as U.S. Census ACS data by school dsitrict.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Andrew Ba Tran, “Wealth and Grades: Compare Connecticut’s School Districts,” </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TrendCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, May 6, 2016, http://trendct.org/2016/05/06/wealth-and-grades-compare-connecticuts-school-districts/.</t>
-    </r>
-  </si>
-  <si>
-    <t>Data from</t>
-  </si>
-  <si>
     <t>see data repository</t>
   </si>
   <si>
     <t>based on</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Motoko Rich, Amanda Cox, and Matthew Bloch, “Money, Race and Success: How Your School District Compares,” </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The New York Times</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, April 29, 2016, http://www.nytimes.com/interactive/2016/04/29/upshot/money-race-and-success-how-your-school-district-compares.html.</t>
-    </r>
-  </si>
-  <si>
     <t>Sean F. Reardon, Demetra Kalogrides, Andrew Ho, Ben Shear, Kenneth Shores, Erin Fahle. (2016). Stanford Education Data Archive, (Version 1.1 File Title). http://purl.stanford.edu/db586ns4974.</t>
   </si>
   <si>
@@ -578,9 +523,6 @@
     <t>grade levels SEDA</t>
   </si>
   <si>
-    <t>grade levels SEDA = CT grade 6 English and math test score data from Spring 2009-2013, linked to NAEP test scores, and expressed as grade level equivalents (above or behind national average)</t>
-  </si>
-  <si>
     <t>median family income SEDA = income at 50th percentile all (from SEDA), calculated as shown below</t>
   </si>
   <si>
@@ -2163,22 +2105,38 @@
   </si>
   <si>
     <t>Correlation coefficients (for selected income measures to grade levels)</t>
+  </si>
+  <si>
+    <t>Data sources:</t>
+  </si>
+  <si>
+    <t>Stanford Education Data Archives, TrendCT, ACS 2009-13</t>
+  </si>
+  <si>
+    <t>median household income = American Community Survey 2009-13</t>
+  </si>
+  <si>
+    <t>grade levels =  average of 6th grade English and Math scores on CT tests, linked to NAEP test scores, and expressed as "grade equivalents" (above or below national average), from TrendCT data repository, based on Stanford Education Data Archive</t>
+  </si>
+  <si>
+    <t>Andrew Ba Tran, “Wealth and Grades: Compare Connecticut’s School Districts,” TrendCT, May 6, 2016, http://trendct.org/2016/05/06/wealth-and-grades-compare-connecticuts-school-districts/.</t>
+  </si>
+  <si>
+    <t>Motoko Rich, Amanda Cox, and Matthew Bloch, “Money, Race and Success: How Your School District Compares,” The New York Times, April 29, 2016, http://www.nytimes.com/interactive/2016/04/29/upshot/money-race-and-success-how-your-school-district-compares.html.</t>
+  </si>
+  <si>
+    <t>grade levels SEDA = CT grade 6 English and Math test score data from Spring 2009-2013, linked to NAEP test scores, and expressed as grade level equivalents (above or behind national average)</t>
+  </si>
+  <si>
+    <t>Instead, I inserted Median Household Income from American Community Survey 2009-13, downloaded from Social Explorer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2221,8 +2179,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2508,7 +2466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
@@ -2524,22 +2482,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2547,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>88438</v>
@@ -2567,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>45505</v>
@@ -2587,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C4">
         <v>75127</v>
@@ -2607,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>115571</v>
@@ -2627,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6">
         <v>89911</v>
@@ -2647,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7">
         <v>87432</v>
@@ -2667,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C8">
         <v>100083</v>
@@ -2687,7 +2645,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C9">
         <v>85589</v>
@@ -2707,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C10">
         <v>73104</v>
@@ -2727,7 +2685,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>86890</v>
@@ -2747,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>78580</v>
@@ -2767,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>70785</v>
@@ -2787,7 +2745,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>41050</v>
@@ -2807,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15">
         <v>57610</v>
@@ -2827,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16">
         <v>107537</v>
@@ -2847,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>59262</v>
@@ -2867,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C18">
         <v>73038</v>
@@ -2887,7 +2845,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C19">
         <v>87891</v>
@@ -2907,7 +2865,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C20">
         <v>75368</v>
@@ -2927,7 +2885,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C21">
         <v>111638</v>
@@ -2947,7 +2905,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22">
         <v>74911</v>
@@ -2967,7 +2925,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23">
         <v>71599</v>
@@ -2987,7 +2945,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C24">
         <v>96774</v>
@@ -3007,7 +2965,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C25">
         <v>79667</v>
@@ -3027,7 +2985,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C26">
         <v>90725</v>
@@ -3047,7 +3005,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C27">
         <v>93816</v>
@@ -3067,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C28">
         <v>75859</v>
@@ -3087,7 +3045,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29">
         <v>64969</v>
@@ -3107,7 +3065,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C30">
         <v>205688</v>
@@ -3127,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C31">
         <v>71500</v>
@@ -3147,7 +3105,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C32">
         <v>53098</v>
@@ -3167,7 +3125,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C33">
         <v>71250</v>
@@ -3187,7 +3145,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C34">
         <v>89615</v>
@@ -3207,7 +3165,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C35">
         <v>94747</v>
@@ -3227,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C36">
         <v>50400</v>
@@ -3247,7 +3205,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C37">
         <v>63673</v>
@@ -3267,7 +3225,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C38">
         <v>78257</v>
@@ -3287,7 +3245,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C39">
         <v>72785</v>
@@ -3307,7 +3265,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C40">
         <v>83015</v>
@@ -3327,7 +3285,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C41">
         <v>150000</v>
@@ -3347,7 +3305,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C42">
         <v>84699</v>
@@ -3367,7 +3325,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C43">
         <v>67191</v>
@@ -3387,7 +3345,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C44">
         <v>86298</v>
@@ -3407,7 +3365,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C45">
         <v>117705</v>
@@ -3427,7 +3385,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C46">
         <v>88935</v>
@@ -3447,7 +3405,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C47">
         <v>89643</v>
@@ -3467,7 +3425,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C48">
         <v>106678</v>
@@ -3487,7 +3445,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C49">
         <v>97894</v>
@@ -3507,7 +3465,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C50">
         <v>132164</v>
@@ -3527,7 +3485,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C51">
         <v>59387</v>
@@ -3547,7 +3505,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C52">
         <v>60684</v>
@@ -3567,7 +3525,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C53">
         <v>96151</v>
@@ -3587,7 +3545,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C54">
         <v>68794</v>
@@ -3607,7 +3565,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C55">
         <v>74559</v>
@@ -3627,7 +3585,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C56">
         <v>29430</v>
@@ -3647,7 +3605,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C57">
         <v>88362</v>
@@ -3667,7 +3625,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C58">
         <v>111792</v>
@@ -3687,7 +3645,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C59">
         <v>57205</v>
@@ -3707,7 +3665,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C60">
         <v>83651</v>
@@ -3727,7 +3685,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C61">
         <v>87518</v>
@@ -3747,7 +3705,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C62">
         <v>80129</v>
@@ -3767,7 +3725,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C63">
         <v>86801</v>
@@ -3787,7 +3745,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C64">
         <v>110761</v>
@@ -3807,7 +3765,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C65">
         <v>63274</v>
@@ -3827,7 +3785,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C66">
         <v>66143</v>
@@ -3847,7 +3805,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C67">
         <v>110694</v>
@@ -3867,7 +3825,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C68">
         <v>52590</v>
@@ -3887,7 +3845,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C69">
         <v>59994</v>
@@ -3907,7 +3865,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C70">
         <v>80460</v>
@@ -3927,7 +3885,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C71">
         <v>103589</v>
@@ -3947,7 +3905,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C72">
         <v>68298</v>
@@ -3967,7 +3925,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C73">
         <v>59056</v>
@@ -3987,7 +3945,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C74">
         <v>40294</v>
@@ -4007,7 +3965,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C75">
         <v>161848</v>
@@ -4027,7 +3985,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C76">
         <v>103100</v>
@@ -4047,7 +4005,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C77">
         <v>86354</v>
@@ -4067,7 +4025,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C78">
         <v>37428</v>
@@ -4087,7 +4045,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C79">
         <v>43307</v>
@@ -4107,7 +4065,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C80">
         <v>80792</v>
@@ -4127,7 +4085,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C81">
         <v>77368</v>
@@ -4147,7 +4105,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C82">
         <v>109159</v>
@@ -4167,7 +4125,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C83">
         <v>71538</v>
@@ -4187,7 +4145,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C84">
         <v>84783</v>
@@ -4207,7 +4165,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C85">
         <v>86250</v>
@@ -4227,7 +4185,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C86">
         <v>82900</v>
@@ -4247,7 +4205,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C87">
         <v>74728</v>
@@ -4267,7 +4225,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C88">
         <v>48597</v>
@@ -4287,7 +4245,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C89">
         <v>75549</v>
@@ -4307,7 +4265,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C90">
         <v>106942</v>
@@ -4327,7 +4285,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C91">
         <v>102167</v>
@@ -4347,7 +4305,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C92">
         <v>62708</v>
@@ -4367,7 +4325,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C93">
         <v>60630</v>
@@ -4387,7 +4345,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C94">
         <v>70273</v>
@@ -4407,7 +4365,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C95">
         <v>84918</v>
@@ -4427,7 +4385,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C96">
         <v>88693</v>
@@ -4447,7 +4405,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C97">
         <v>74141</v>
@@ -4467,7 +4425,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C98">
         <v>46627</v>
@@ -4487,7 +4445,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C99">
         <v>119112</v>
@@ -4687,7 +4645,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C109">
         <v>147993</v>
@@ -4707,7 +4665,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C110">
         <v>77560</v>
@@ -4727,7 +4685,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C111">
         <v>100625</v>
@@ -4747,7 +4705,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C112">
         <v>68094</v>
@@ -4767,7 +4725,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C113">
         <v>78250</v>
@@ -4787,7 +4745,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C114">
         <v>75426</v>
@@ -4807,7 +4765,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C115">
         <v>86138</v>
@@ -4827,7 +4785,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C116">
         <v>112344</v>
@@ -4847,7 +4805,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C117">
         <v>115000</v>
@@ -4867,7 +4825,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C118">
         <v>98846</v>
@@ -4887,7 +4845,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C119">
         <v>90499</v>
@@ -4907,7 +4865,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C120">
         <v>80029</v>
@@ -4927,7 +4885,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C121">
         <v>61959</v>
@@ -4947,7 +4905,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C122">
         <v>76779</v>
@@ -4967,7 +4925,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C123">
         <v>68833</v>
@@ -4987,7 +4945,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C124">
         <v>81026</v>
@@ -5007,7 +4965,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C125">
         <v>66361</v>
@@ -5027,7 +4985,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C126">
         <v>92737</v>
@@ -5047,7 +5005,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C127">
         <v>76692</v>
@@ -5067,7 +5025,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C128">
         <v>64974</v>
@@ -5087,7 +5045,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C129">
         <v>103869</v>
@@ -5107,7 +5065,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C130">
         <v>51951</v>
@@ -5127,7 +5085,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C131">
         <v>108854</v>
@@ -5147,7 +5105,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C132">
         <v>61038</v>
@@ -5167,7 +5125,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C133">
         <v>75938</v>
@@ -5187,7 +5145,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C134">
         <v>75346</v>
@@ -5207,7 +5165,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C135">
         <v>40639</v>
@@ -5227,7 +5185,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C136">
         <v>73156</v>
@@ -5247,7 +5205,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C137">
         <v>80067</v>
@@ -5267,7 +5225,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C138">
         <v>82322</v>
@@ -5287,7 +5245,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C139">
         <v>52353</v>
@@ -5307,7 +5265,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C140">
         <v>62832</v>
@@ -5327,7 +5285,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C141">
         <v>207262</v>
@@ -5347,7 +5305,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C142">
         <v>160106</v>
@@ -5367,7 +5325,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C143">
         <v>77740</v>
@@ -5387,7 +5345,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C144">
         <v>72011</v>
@@ -5407,7 +5365,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C145">
         <v>167094</v>
@@ -5427,7 +5385,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C146">
         <v>58458</v>
@@ -5447,7 +5405,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C147">
         <v>41639</v>
@@ -5467,7 +5425,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C148">
         <v>79528</v>
@@ -5487,7 +5445,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C149">
         <v>66583</v>
@@ -5507,7 +5465,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C150">
         <v>83993</v>
@@ -5527,7 +5485,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C151">
         <v>138082</v>
@@ -5547,7 +5505,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C152">
         <v>77366</v>
@@ -5569,10 +5527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5583,474 +5541,477 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>156</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
       <c r="B22" t="s">
-        <v>692</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>682</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>79850</v>
-      </c>
-      <c r="C25">
-        <v>91806</v>
+      <c r="A25" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>83958</v>
-      </c>
-      <c r="C26">
-        <v>97625</v>
+      <c r="A26" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>100972</v>
-      </c>
-      <c r="C27">
-        <v>105809</v>
+      <c r="B27" t="s">
+        <v>688</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>694</v>
-      </c>
-      <c r="B28">
-        <f>AVERAGE(B25:B27)</f>
-        <v>88260</v>
-      </c>
-      <c r="C28" s="1">
-        <f>AVERAGE(C25:C27)</f>
-        <v>98413.333333333328</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>105422</v>
+        <v>79850</v>
       </c>
       <c r="C30">
-        <v>114577</v>
+        <v>91806</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>89102</v>
+        <v>83958</v>
       </c>
       <c r="C31">
-        <v>92417</v>
+        <v>97625</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>694</v>
-      </c>
       <c r="B32">
-        <f>AVERAGE(B30:B31)</f>
-        <v>97262</v>
+        <v>100972</v>
       </c>
       <c r="C32">
-        <f>AVERAGE(C30:C31)</f>
-        <v>103497</v>
+        <v>105809</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>684</v>
+        <v>690</v>
+      </c>
+      <c r="B33">
+        <v>88260</v>
+      </c>
+      <c r="C33">
+        <v>98413.333333333328</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>87875</v>
-      </c>
-      <c r="C34">
-        <v>118125</v>
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>90250</v>
+        <v>105422</v>
       </c>
       <c r="C35">
-        <v>113523</v>
+        <v>114577</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>80160</v>
+        <v>89102</v>
       </c>
       <c r="C36">
-        <v>94063</v>
+        <v>92417</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B37">
-        <f>AVERAGE(B34:B36)</f>
-        <v>86095</v>
+        <v>97262</v>
       </c>
       <c r="C37">
-        <f>AVERAGE(C34:C36)</f>
-        <v>108570.33333333333</v>
+        <v>103497</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>124179</v>
+        <v>87875</v>
       </c>
       <c r="C39">
-        <v>135037</v>
+        <v>118125</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>96765</v>
+        <v>90250</v>
       </c>
       <c r="C40">
-        <v>112214</v>
+        <v>113523</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>694</v>
-      </c>
       <c r="B41">
-        <f>AVERAGE(B39:B40)</f>
-        <v>110472</v>
+        <v>80160</v>
       </c>
       <c r="C41">
-        <f>AVERAGE(C39:C40)</f>
-        <v>123625.5</v>
+        <v>94063</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>686</v>
+        <v>690</v>
+      </c>
+      <c r="B42">
+        <v>86095</v>
+      </c>
+      <c r="C42">
+        <v>108570.33333333333</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>83871</v>
-      </c>
-      <c r="C43">
-        <v>96146</v>
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>81597</v>
+        <v>124179</v>
       </c>
       <c r="C44">
-        <v>104529</v>
+        <v>135037</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>694</v>
-      </c>
       <c r="B45">
-        <f>AVERAGE(B43:B44)</f>
-        <v>82734</v>
+        <v>96765</v>
       </c>
       <c r="C45">
-        <f>AVERAGE(C43:C44)</f>
-        <v>100337.5</v>
+        <v>112214</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>687</v>
+        <v>690</v>
+      </c>
+      <c r="B46">
+        <v>110472</v>
+      </c>
+      <c r="C46">
+        <v>123625.5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>96181</v>
-      </c>
-      <c r="C47">
-        <v>108203</v>
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48">
+        <v>83871</v>
+      </c>
+      <c r="C48">
+        <v>96146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>81597</v>
+      </c>
+      <c r="C49">
+        <v>104529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>690</v>
+      </c>
+      <c r="B50">
+        <v>82734</v>
+      </c>
+      <c r="C50">
+        <v>100337.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>96181</v>
+      </c>
+      <c r="C52">
+        <v>108203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53">
         <v>73341</v>
       </c>
-      <c r="C48">
+      <c r="C53">
         <v>103750</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>694</v>
-      </c>
-      <c r="B49">
-        <f>AVERAGE(B47:B48)</f>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>690</v>
+      </c>
+      <c r="B54">
         <v>84761</v>
       </c>
-      <c r="C49">
-        <f>AVERAGE(C47:C48)</f>
+      <c r="C54">
         <v>105976.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>105</v>
       </c>
-      <c r="B50" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51">
+      <c r="B55" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56">
         <v>85280</v>
       </c>
-      <c r="C51">
+      <c r="C56">
         <v>100588</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57">
         <v>98151</v>
       </c>
-      <c r="C52">
+      <c r="C57">
         <v>109375</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>694</v>
-      </c>
-      <c r="B53">
-        <f>AVERAGE(B51:B52)</f>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>690</v>
+      </c>
+      <c r="B58">
         <v>91715.5</v>
       </c>
-      <c r="C53">
-        <f>AVERAGE(C51:C52)</f>
+      <c r="C58">
         <v>104981.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55">
+      <c r="B59" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60">
         <v>93824</v>
       </c>
-      <c r="C55">
+      <c r="C60">
         <v>108528</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61">
         <v>112761</v>
       </c>
-      <c r="C56">
+      <c r="C61">
         <v>127121</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>694</v>
-      </c>
-      <c r="B57">
-        <f>AVERAGE(B55:B56)</f>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>690</v>
+      </c>
+      <c r="B62">
         <v>103292.5</v>
       </c>
-      <c r="C57">
-        <f>AVERAGE(C55:C56)</f>
+      <c r="C62">
         <v>117824.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>107</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B63" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>85263</v>
+      </c>
+      <c r="C64">
+        <v>107125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>87416</v>
+      </c>
+      <c r="C65">
+        <v>103421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <v>85263</v>
-      </c>
-      <c r="C59">
-        <v>107125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <v>87416</v>
-      </c>
-      <c r="C60">
-        <v>103421</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>694</v>
-      </c>
-      <c r="B61">
-        <f>AVERAGE(B59:B60)</f>
+      <c r="B66">
         <v>86339.5</v>
       </c>
-      <c r="C61">
-        <f>AVERAGE(C59:C60)</f>
+      <c r="C66">
         <v>105273</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>316</v>
-      </c>
-      <c r="C64" t="s">
-        <v>317</v>
-      </c>
-      <c r="D64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70">
         <v>0.7779673279948639</v>
       </c>
-      <c r="C65">
+      <c r="C70">
         <v>0.94798187541855605</v>
       </c>
-      <c r="D65">
+      <c r="D70">
         <v>0.79933733411706631</v>
       </c>
     </row>
@@ -6074,27 +6035,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>88438</v>
@@ -6103,15 +6064,15 @@
         <v>102364</v>
       </c>
       <c r="E2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>45505</v>
@@ -6120,15 +6081,15 @@
         <v>67306</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C4">
         <v>75127</v>
@@ -6137,15 +6098,15 @@
         <v>95156</v>
       </c>
       <c r="E4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>115571</v>
@@ -6154,15 +6115,15 @@
         <v>151375</v>
       </c>
       <c r="E5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6">
         <v>89911</v>
@@ -6171,15 +6132,15 @@
         <v>114313</v>
       </c>
       <c r="E6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C7">
         <v>85280</v>
@@ -6188,15 +6149,15 @@
         <v>100588</v>
       </c>
       <c r="E7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8">
         <v>87432</v>
@@ -6205,15 +6166,15 @@
         <v>105084</v>
       </c>
       <c r="E8" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <v>100083</v>
@@ -6222,15 +6183,15 @@
         <v>119737</v>
       </c>
       <c r="E9" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C10">
         <v>85589</v>
@@ -6239,15 +6200,15 @@
         <v>100500</v>
       </c>
       <c r="E10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C11">
         <v>83871</v>
@@ -6256,15 +6217,15 @@
         <v>96146</v>
       </c>
       <c r="E11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12">
         <v>73104</v>
@@ -6273,15 +6234,15 @@
         <v>83333</v>
       </c>
       <c r="E12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C13">
         <v>86890</v>
@@ -6290,15 +6251,15 @@
         <v>113929</v>
       </c>
       <c r="E13" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14">
         <v>78580</v>
@@ -6307,15 +6268,15 @@
         <v>88500</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15">
         <v>70785</v>
@@ -6324,15 +6285,15 @@
         <v>88421</v>
       </c>
       <c r="E15" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C16">
         <v>41050</v>
@@ -6341,15 +6302,15 @@
         <v>47258</v>
       </c>
       <c r="E16" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C17">
         <v>87875</v>
@@ -6358,15 +6319,15 @@
         <v>118125</v>
       </c>
       <c r="E17" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C18">
         <v>57610</v>
@@ -6375,15 +6336,15 @@
         <v>69862</v>
       </c>
       <c r="E18" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <v>107537</v>
@@ -6392,15 +6353,15 @@
         <v>125947</v>
       </c>
       <c r="E19" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C20">
         <v>59262</v>
@@ -6409,15 +6370,15 @@
         <v>78102</v>
       </c>
       <c r="E20" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B21" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C21">
         <v>105422</v>
@@ -6426,15 +6387,15 @@
         <v>114577</v>
       </c>
       <c r="E21" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C22">
         <v>65000</v>
@@ -6443,15 +6404,15 @@
         <v>91667</v>
       </c>
       <c r="E22" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C23">
         <v>73038</v>
@@ -6460,15 +6421,15 @@
         <v>87756</v>
       </c>
       <c r="E23" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C24">
         <v>87891</v>
@@ -6477,15 +6438,15 @@
         <v>105913</v>
       </c>
       <c r="E24" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C25">
         <v>75368</v>
@@ -6494,15 +6455,15 @@
         <v>82813</v>
       </c>
       <c r="E25" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C26">
         <v>111638</v>
@@ -6511,15 +6472,15 @@
         <v>128000</v>
       </c>
       <c r="E26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C27">
         <v>74911</v>
@@ -6528,15 +6489,15 @@
         <v>102563</v>
       </c>
       <c r="E27" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C28">
         <v>71599</v>
@@ -6545,15 +6506,15 @@
         <v>84914</v>
       </c>
       <c r="E28" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C29">
         <v>96774</v>
@@ -6562,15 +6523,15 @@
         <v>105154</v>
       </c>
       <c r="E29" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C30">
         <v>79667</v>
@@ -6579,15 +6540,15 @@
         <v>85313</v>
       </c>
       <c r="E30" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C31">
         <v>90725</v>
@@ -6596,15 +6557,15 @@
         <v>110129</v>
       </c>
       <c r="E31" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B32" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C32">
         <v>67500</v>
@@ -6613,15 +6574,15 @@
         <v>87109</v>
       </c>
       <c r="E32" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C33">
         <v>93816</v>
@@ -6630,15 +6591,15 @@
         <v>96186</v>
       </c>
       <c r="E33" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C34">
         <v>75859</v>
@@ -6647,15 +6608,15 @@
         <v>98388</v>
       </c>
       <c r="E34" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <v>64969</v>
@@ -6664,15 +6625,15 @@
         <v>75121</v>
       </c>
       <c r="E35" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C36">
         <v>205688</v>
@@ -6681,15 +6642,15 @@
         <v>250001</v>
       </c>
       <c r="E36" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C37">
         <v>71500</v>
@@ -6698,15 +6659,15 @@
         <v>95694</v>
       </c>
       <c r="E37" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C38">
         <v>53098</v>
@@ -6715,15 +6676,15 @@
         <v>63951</v>
       </c>
       <c r="E38" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B39" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C39">
         <v>124179</v>
@@ -6732,15 +6693,15 @@
         <v>135037</v>
       </c>
       <c r="E39" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C40">
         <v>71250</v>
@@ -6749,15 +6710,15 @@
         <v>95139</v>
       </c>
       <c r="E40" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C41">
         <v>89615</v>
@@ -6766,15 +6727,15 @@
         <v>97423</v>
       </c>
       <c r="E41" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C42">
         <v>94747</v>
@@ -6783,15 +6744,15 @@
         <v>111019</v>
       </c>
       <c r="E42" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C43">
         <v>50400</v>
@@ -6800,15 +6761,15 @@
         <v>60440</v>
       </c>
       <c r="E43" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C44">
         <v>63673</v>
@@ -6817,15 +6778,15 @@
         <v>70349</v>
       </c>
       <c r="E44" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C45">
         <v>78257</v>
@@ -6834,15 +6795,15 @@
         <v>96314</v>
       </c>
       <c r="E45" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C46">
         <v>72785</v>
@@ -6851,15 +6812,15 @@
         <v>83861</v>
       </c>
       <c r="E46" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C47">
         <v>83015</v>
@@ -6868,15 +6829,15 @@
         <v>100647</v>
       </c>
       <c r="E47" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C48">
         <v>150000</v>
@@ -6885,15 +6846,15 @@
         <v>171250</v>
       </c>
       <c r="E48" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C49">
         <v>84699</v>
@@ -6902,15 +6863,15 @@
         <v>100047</v>
       </c>
       <c r="E49" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C50">
         <v>67191</v>
@@ -6919,15 +6880,15 @@
         <v>80188</v>
       </c>
       <c r="E50" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C51">
         <v>86298</v>
@@ -6936,15 +6897,15 @@
         <v>108542</v>
       </c>
       <c r="E51" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C52">
         <v>117705</v>
@@ -6953,15 +6914,15 @@
         <v>146288</v>
       </c>
       <c r="E52" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C53">
         <v>88935</v>
@@ -6970,15 +6931,15 @@
         <v>115072</v>
       </c>
       <c r="E53" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C54">
         <v>89643</v>
@@ -6987,15 +6948,15 @@
         <v>99154</v>
       </c>
       <c r="E54" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C55">
         <v>106678</v>
@@ -7004,15 +6965,15 @@
         <v>125030</v>
       </c>
       <c r="E55" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B56" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C56">
         <v>79850</v>
@@ -7021,15 +6982,15 @@
         <v>91806</v>
       </c>
       <c r="E56" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C57">
         <v>97894</v>
@@ -7038,15 +6999,15 @@
         <v>122011</v>
       </c>
       <c r="E57" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C58">
         <v>132164</v>
@@ -7055,15 +7016,15 @@
         <v>171418</v>
       </c>
       <c r="E58" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C59">
         <v>59387</v>
@@ -7072,15 +7033,15 @@
         <v>71939</v>
       </c>
       <c r="E59" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C60">
         <v>60684</v>
@@ -7089,15 +7050,15 @@
         <v>73521</v>
       </c>
       <c r="E60" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C61">
         <v>96151</v>
@@ -7106,15 +7067,15 @@
         <v>119552</v>
       </c>
       <c r="E61" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C62">
         <v>93824</v>
@@ -7123,15 +7084,15 @@
         <v>108528</v>
       </c>
       <c r="E62" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C63">
         <v>68794</v>
@@ -7140,15 +7101,15 @@
         <v>88948</v>
       </c>
       <c r="E63" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C64">
         <v>74559</v>
@@ -7157,15 +7118,15 @@
         <v>84167</v>
       </c>
       <c r="E64" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C65">
         <v>29430</v>
@@ -7174,15 +7135,15 @@
         <v>33756</v>
       </c>
       <c r="E65" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C66">
         <v>88362</v>
@@ -7191,15 +7152,15 @@
         <v>94875</v>
       </c>
       <c r="E66" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B67" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C67">
         <v>89102</v>
@@ -7208,15 +7169,15 @@
         <v>92417</v>
       </c>
       <c r="E67" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C68">
         <v>111792</v>
@@ -7225,15 +7186,15 @@
         <v>118821</v>
       </c>
       <c r="E68" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B69" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C69">
         <v>64038</v>
@@ -7242,15 +7203,15 @@
         <v>96250</v>
       </c>
       <c r="E69" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C70">
         <v>57205</v>
@@ -7259,15 +7220,15 @@
         <v>72238</v>
       </c>
       <c r="E70" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B71" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C71">
         <v>112761</v>
@@ -7276,15 +7237,15 @@
         <v>127121</v>
       </c>
       <c r="E71" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C72">
         <v>83651</v>
@@ -7293,15 +7254,15 @@
         <v>99297</v>
       </c>
       <c r="E72" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C73">
         <v>87518</v>
@@ -7310,15 +7271,15 @@
         <v>97595</v>
       </c>
       <c r="E73" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C74">
         <v>80129</v>
@@ -7327,15 +7288,15 @@
         <v>94453</v>
       </c>
       <c r="E74" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C75">
         <v>86801</v>
@@ -7344,15 +7305,15 @@
         <v>104167</v>
       </c>
       <c r="E75" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C76">
         <v>85263</v>
@@ -7361,15 +7322,15 @@
         <v>107125</v>
       </c>
       <c r="E76" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C77">
         <v>110761</v>
@@ -7378,15 +7339,15 @@
         <v>141708</v>
       </c>
       <c r="E77" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C78">
         <v>63274</v>
@@ -7395,15 +7356,15 @@
         <v>75766</v>
       </c>
       <c r="E78" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C79">
         <v>66143</v>
@@ -7412,15 +7373,15 @@
         <v>92121</v>
       </c>
       <c r="E79" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C80">
         <v>110694</v>
@@ -7429,15 +7390,15 @@
         <v>114375</v>
       </c>
       <c r="E80" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C81">
         <v>52590</v>
@@ -7446,15 +7407,15 @@
         <v>60580</v>
       </c>
       <c r="E81" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B82" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C82">
         <v>96181</v>
@@ -7463,15 +7424,15 @@
         <v>108203</v>
       </c>
       <c r="E82" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C83">
         <v>96765</v>
@@ -7480,15 +7441,15 @@
         <v>112214</v>
       </c>
       <c r="E83" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>59994</v>
@@ -7497,15 +7458,15 @@
         <v>81619</v>
       </c>
       <c r="E84" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C85">
         <v>80460</v>
@@ -7514,15 +7475,15 @@
         <v>100680</v>
       </c>
       <c r="E85" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C86">
         <v>103589</v>
@@ -7531,15 +7492,15 @@
         <v>121023</v>
       </c>
       <c r="E86" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C87">
         <v>68298</v>
@@ -7548,15 +7509,15 @@
         <v>82391</v>
       </c>
       <c r="E87" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B88" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C88">
         <v>83958</v>
@@ -7565,15 +7526,15 @@
         <v>97625</v>
       </c>
       <c r="E88" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C89">
         <v>59056</v>
@@ -7582,15 +7543,15 @@
         <v>76214</v>
       </c>
       <c r="E89" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C90">
         <v>40294</v>
@@ -7599,15 +7560,15 @@
         <v>47625</v>
       </c>
       <c r="E90" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C91">
         <v>161848</v>
@@ -7616,15 +7577,15 @@
         <v>210605</v>
       </c>
       <c r="E91" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C92">
         <v>103100</v>
@@ -7633,15 +7594,15 @@
         <v>115909</v>
       </c>
       <c r="E92" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C93">
         <v>86354</v>
@@ -7650,15 +7611,15 @@
         <v>102563</v>
       </c>
       <c r="E93" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C94">
         <v>37428</v>
@@ -7667,15 +7628,15 @@
         <v>45365</v>
       </c>
       <c r="E94" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C95">
         <v>43307</v>
@@ -7684,15 +7645,15 @@
         <v>48481</v>
       </c>
       <c r="E95" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C96">
         <v>80792</v>
@@ -7701,15 +7662,15 @@
         <v>93959</v>
       </c>
       <c r="E96" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C97">
         <v>77368</v>
@@ -7718,15 +7679,15 @@
         <v>90979</v>
       </c>
       <c r="E97" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C98">
         <v>109159</v>
@@ -7735,15 +7696,15 @@
         <v>125285</v>
       </c>
       <c r="E98" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C99">
         <v>71538</v>
@@ -7752,15 +7713,15 @@
         <v>90170</v>
       </c>
       <c r="E99" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B100" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C100">
         <v>84783</v>
@@ -7769,15 +7730,15 @@
         <v>99004</v>
       </c>
       <c r="E100" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B101" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C101">
         <v>49746</v>
@@ -7786,15 +7747,15 @@
         <v>54405</v>
       </c>
       <c r="E101" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C102">
         <v>86250</v>
@@ -7803,15 +7764,15 @@
         <v>101124</v>
       </c>
       <c r="E102" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C103">
         <v>82900</v>
@@ -7820,15 +7781,15 @@
         <v>85130</v>
       </c>
       <c r="E103" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C104">
         <v>74728</v>
@@ -7837,15 +7798,15 @@
         <v>95377</v>
       </c>
       <c r="E104" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C105">
         <v>48597</v>
@@ -7854,15 +7815,15 @@
         <v>58885</v>
       </c>
       <c r="E105" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B106" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C106">
         <v>87416</v>
@@ -7871,15 +7832,15 @@
         <v>103421</v>
       </c>
       <c r="E106" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C107">
         <v>75549</v>
@@ -7888,15 +7849,15 @@
         <v>98939</v>
       </c>
       <c r="E107" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C108">
         <v>106942</v>
@@ -7905,15 +7866,15 @@
         <v>125087</v>
       </c>
       <c r="E108" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C109">
         <v>102167</v>
@@ -7922,15 +7883,15 @@
         <v>109235</v>
       </c>
       <c r="E109" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C110">
         <v>62708</v>
@@ -7939,15 +7900,15 @@
         <v>71971</v>
       </c>
       <c r="E110" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C111">
         <v>60630</v>
@@ -7956,15 +7917,15 @@
         <v>81219</v>
       </c>
       <c r="E111" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C112">
         <v>70273</v>
@@ -7973,15 +7934,15 @@
         <v>82095</v>
       </c>
       <c r="E112" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C113">
         <v>84918</v>
@@ -7990,15 +7951,15 @@
         <v>105880</v>
       </c>
       <c r="E113" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C114">
         <v>88693</v>
@@ -8007,15 +7968,15 @@
         <v>107898</v>
       </c>
       <c r="E114" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C115">
         <v>74141</v>
@@ -8024,15 +7985,15 @@
         <v>82380</v>
       </c>
       <c r="E115" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C116">
         <v>98151</v>
@@ -8041,15 +8002,15 @@
         <v>109375</v>
       </c>
       <c r="E116" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C117">
         <v>46627</v>
@@ -8058,15 +8019,15 @@
         <v>56835</v>
       </c>
       <c r="E117" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C118">
         <v>119112</v>
@@ -8075,15 +8036,15 @@
         <v>147907</v>
       </c>
       <c r="E118" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C119">
         <v>147993</v>
@@ -8092,15 +8053,15 @@
         <v>171685</v>
       </c>
       <c r="E119" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C120">
         <v>77560</v>
@@ -8109,15 +8070,15 @@
         <v>101446</v>
       </c>
       <c r="E120" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C121">
         <v>90250</v>
@@ -8126,15 +8087,15 @@
         <v>113523</v>
       </c>
       <c r="E121" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C122">
         <v>100625</v>
@@ -8143,15 +8104,15 @@
         <v>113558</v>
       </c>
       <c r="E122" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C123">
         <v>68094</v>
@@ -8160,15 +8121,15 @@
         <v>97656</v>
       </c>
       <c r="E123" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C124">
         <v>78250</v>
@@ -8177,15 +8138,15 @@
         <v>79934</v>
       </c>
       <c r="E124" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C125">
         <v>75426</v>
@@ -8194,15 +8155,15 @@
         <v>94331</v>
       </c>
       <c r="E125" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B126" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C126">
         <v>74083</v>
@@ -8211,15 +8172,15 @@
         <v>81944</v>
       </c>
       <c r="E126" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C127">
         <v>86138</v>
@@ -8228,15 +8189,15 @@
         <v>105580</v>
       </c>
       <c r="E127" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C128">
         <v>112344</v>
@@ -8245,15 +8206,15 @@
         <v>135000</v>
       </c>
       <c r="E128" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C129">
         <v>115000</v>
@@ -8262,15 +8223,15 @@
         <v>142367</v>
       </c>
       <c r="E129" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C130">
         <v>98846</v>
@@ -8279,15 +8240,15 @@
         <v>106063</v>
       </c>
       <c r="E130" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B131" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C131">
         <v>90499</v>
@@ -8296,15 +8257,15 @@
         <v>106069</v>
       </c>
       <c r="E131" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B132" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C132">
         <v>73341</v>
@@ -8313,15 +8274,15 @@
         <v>103750</v>
       </c>
       <c r="E132" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C133">
         <v>80029</v>
@@ -8330,15 +8291,15 @@
         <v>100430</v>
       </c>
       <c r="E133" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B134" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C134">
         <v>66622</v>
@@ -8347,15 +8308,15 @@
         <v>77565</v>
       </c>
       <c r="E134" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C135">
         <v>61959</v>
@@ -8364,15 +8325,15 @@
         <v>78596</v>
       </c>
       <c r="E135" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C136">
         <v>76779</v>
@@ -8381,15 +8342,15 @@
         <v>87865</v>
       </c>
       <c r="E136" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C137">
         <v>68833</v>
@@ -8398,15 +8359,15 @@
         <v>72206</v>
       </c>
       <c r="E137" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C138">
         <v>81026</v>
@@ -8415,15 +8376,15 @@
         <v>101399</v>
       </c>
       <c r="E138" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C139">
         <v>66361</v>
@@ -8432,15 +8393,15 @@
         <v>85751</v>
       </c>
       <c r="E139" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C140">
         <v>92737</v>
@@ -8449,15 +8410,15 @@
         <v>106495</v>
       </c>
       <c r="E140" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C141">
         <v>76692</v>
@@ -8466,15 +8427,15 @@
         <v>85965</v>
       </c>
       <c r="E141" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B142" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C142">
         <v>64974</v>
@@ -8483,15 +8444,15 @@
         <v>81218</v>
       </c>
       <c r="E142" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C143">
         <v>103869</v>
@@ -8500,15 +8461,15 @@
         <v>112261</v>
       </c>
       <c r="E143" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B144" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C144">
         <v>51951</v>
@@ -8517,15 +8478,15 @@
         <v>67442</v>
       </c>
       <c r="E144" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B145" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C145">
         <v>108854</v>
@@ -8534,15 +8495,15 @@
         <v>126967</v>
       </c>
       <c r="E145" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B146" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C146">
         <v>83850</v>
@@ -8551,15 +8512,15 @@
         <v>88125</v>
       </c>
       <c r="E146" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C147">
         <v>61038</v>
@@ -8568,15 +8529,15 @@
         <v>80139</v>
       </c>
       <c r="E147" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C148">
         <v>75938</v>
@@ -8585,15 +8546,15 @@
         <v>80085</v>
       </c>
       <c r="E148" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C149">
         <v>75346</v>
@@ -8602,15 +8563,15 @@
         <v>92373</v>
       </c>
       <c r="E149" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C150">
         <v>100972</v>
@@ -8619,15 +8580,15 @@
         <v>105809</v>
       </c>
       <c r="E150" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B151" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C151">
         <v>80160</v>
@@ -8636,15 +8597,15 @@
         <v>94063</v>
       </c>
       <c r="E151" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B152" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C152">
         <v>40639</v>
@@ -8653,15 +8614,15 @@
         <v>47646</v>
       </c>
       <c r="E152" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C153">
         <v>73156</v>
@@ -8670,15 +8631,15 @@
         <v>93933</v>
       </c>
       <c r="E153" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B154" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C154">
         <v>80067</v>
@@ -8687,15 +8648,15 @@
         <v>100259</v>
       </c>
       <c r="E154" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C155">
         <v>82322</v>
@@ -8704,15 +8665,15 @@
         <v>106634</v>
       </c>
       <c r="E155" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C156">
         <v>52353</v>
@@ -8721,15 +8682,15 @@
         <v>65449</v>
       </c>
       <c r="E156" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B157" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C157">
         <v>62832</v>
@@ -8738,15 +8699,15 @@
         <v>85353</v>
       </c>
       <c r="E157" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B158" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C158">
         <v>207262</v>
@@ -8755,15 +8716,15 @@
         <v>233958</v>
       </c>
       <c r="E158" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B159" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C159">
         <v>160106</v>
@@ -8772,15 +8733,15 @@
         <v>188581</v>
       </c>
       <c r="E159" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B160" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C160">
         <v>77740</v>
@@ -8789,15 +8750,15 @@
         <v>100722</v>
       </c>
       <c r="E160" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B161" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C161">
         <v>72011</v>
@@ -8806,15 +8767,15 @@
         <v>101964</v>
       </c>
       <c r="E161" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C162">
         <v>167094</v>
@@ -8823,15 +8784,15 @@
         <v>201136</v>
       </c>
       <c r="E162" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B163" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C163">
         <v>58458</v>
@@ -8840,15 +8801,15 @@
         <v>67827</v>
       </c>
       <c r="E163" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C164">
         <v>41639</v>
@@ -8857,15 +8818,15 @@
         <v>48848</v>
       </c>
       <c r="E164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C165">
         <v>66583</v>
@@ -8874,15 +8835,15 @@
         <v>83388</v>
       </c>
       <c r="E165" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C166">
         <v>79528</v>
@@ -8891,15 +8852,15 @@
         <v>93688</v>
       </c>
       <c r="E166" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B167" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C167">
         <v>83993</v>
@@ -8908,15 +8869,15 @@
         <v>94659</v>
       </c>
       <c r="E167" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B168" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C168">
         <v>138082</v>
@@ -8925,15 +8886,15 @@
         <v>155000</v>
       </c>
       <c r="E168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C169">
         <v>81597</v>
@@ -8942,15 +8903,15 @@
         <v>104529</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B170" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C170">
         <v>77366</v>
@@ -8959,7 +8920,7 @@
         <v>106010</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
